--- a/Data/EmployeeSalaries.xlsx
+++ b/Data/EmployeeSalaries.xlsx
@@ -10,6 +10,7 @@
   <x:sheets>
     <x:sheet name="Emp Salaries" sheetId="1" r:id="rId1"/>
     <x:sheet name="Results_122002" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Results_122839" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191028"/>
@@ -126,7 +127,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -141,6 +142,12 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -726,4 +733,94 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D5"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="8">
+        <x:v>42319</x:v>
+      </x:c>
+      <x:c r="C2" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D2" s="4" t="n">
+        <x:v>20000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B3" s="8">
+        <x:v>41431</x:v>
+      </x:c>
+      <x:c r="C3" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="8">
+        <x:v>41492</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="8">
+        <x:v>41316</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="n">
+        <x:v>28000</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>